--- a/アップデート合宿課題管理表.xlsx
+++ b/アップデート合宿課題管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="27240" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="アップデート合宿課題管理表" sheetId="1" r:id="rId1"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1065,6 +1065,9 @@
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -1082,6 +1085,9 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
@@ -1099,6 +1105,9 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -1113,6 +1122,9 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="57">
       <c r="A8" s="1">
@@ -1208,6 +1220,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
